--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,52 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Posts" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Posts" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,13 +42,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,175 +440,2346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" customWidth="1"/>
-    <col min="10" max="10" width="60.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="50.83203125" customWidth="1"/>
-    <col min="13" max="13" width="30.83203125" customWidth="1"/>
-    <col min="14" max="14" width="30.83203125" customWidth="1"/>
-    <col min="15" max="15" width="60.83203125" customWidth="1"/>
-    <col min="16" max="16" width="20.83203125" customWidth="1"/>
-    <col min="17" max="17" width="50.83203125" customWidth="1"/>
+    <col width="12.83203125" customWidth="1" min="1" max="1"/>
+    <col width="50.83203125" customWidth="1" min="2" max="2"/>
+    <col width="30.83203125" customWidth="1" min="3" max="3"/>
+    <col width="50.83203125" customWidth="1" min="4" max="4"/>
+    <col width="40.83203125" customWidth="1" min="5" max="5"/>
+    <col width="50.83203125" customWidth="1" min="6" max="6"/>
+    <col width="20.83203125" customWidth="1" min="7" max="7"/>
+    <col width="12.83203125" customWidth="1" min="8" max="8"/>
+    <col width="50.83203125" customWidth="1" min="9" max="9"/>
+    <col width="60.83203125" customWidth="1" min="10" max="10"/>
+    <col width="12.83203125" customWidth="1" min="11" max="11"/>
+    <col width="50.83203125" customWidth="1" min="12" max="12"/>
+    <col width="30.83203125" customWidth="1" min="13" max="13"/>
+    <col width="30.83203125" customWidth="1" min="14" max="14"/>
+    <col width="60.83203125" customWidth="1" min="15" max="15"/>
+    <col width="20.83203125" customWidth="1" min="16" max="16"/>
+    <col width="50.83203125" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>video_download_url</v>
-      </c>
-      <c r="C1" t="str">
-        <v>title</v>
-      </c>
-      <c r="D1" t="str">
-        <v>hashtags</v>
-      </c>
-      <c r="E1" t="str">
-        <v>shopee_links</v>
-      </c>
-      <c r="F1" t="str">
-        <v>status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>local_video_url</v>
-      </c>
-      <c r="H1" t="str">
-        <v>local_video_path</v>
-      </c>
-      <c r="I1" t="str">
-        <v>video_size</v>
-      </c>
-      <c r="J1" t="str">
-        <v>tiktok_url</v>
-      </c>
-      <c r="K1" t="str">
-        <v>error_message</v>
-      </c>
-      <c r="L1" t="str">
-        <v>facebook_post_id</v>
-      </c>
-      <c r="M1" t="str">
-        <v>facebook_post_url</v>
-      </c>
-      <c r="N1" t="str">
-        <v>facebook_posted_at</v>
-      </c>
-      <c r="O1" t="str">
-        <v>scheduled_time</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>video_download_url</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>hashtags</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>shopee_links</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>local_video_url</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>local_video_path</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>video_size</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>tiktok_url</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>error_message</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>facebook_post_id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>facebook_post_url</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>facebook_posted_at</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>scheduled_time</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>video_001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>https://vt.tiktok.com/ZSyagys6Q/</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Người nhện đối đầu người cát P1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>#reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</v>
-      </c>
-      <c r="E2" t="str">
-        <v>https://s.shopee.vn/6AczLK8L0D</v>
-      </c>
-      <c r="F2" t="str">
-        <v>POSTED</v>
-      </c>
-      <c r="G2" t="str">
-        <v>http://localhost:8080/videos/video_video_001_1762438586778.mp4</v>
-      </c>
-      <c r="H2" t="str">
-        <v>d:\project\ToolAuto\tiktok-shopee-automation\videos\public\video_video_001_1762438586778.mp4</v>
-      </c>
-      <c r="I2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>video_001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSyagys6Q/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Người nhện đối đầu người cát P1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>#reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>POSTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/videos/video_video_001_1762438586778.mp4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>d:\project\ToolAuto\tiktok-shopee-automation\videos\public\video_video_001_1762438586778.mp4</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>30897229</v>
       </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v>759184587141608</v>
-      </c>
-      <c r="M2" t="str">
-        <v>https://www.facebook.com/759184587141608</v>
-      </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <v/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>759184587141608</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/759184587141608</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>video_002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>https://www.tiktok.com/@cartonvn/video/7558771739644202260?_r=1&amp;_d=secCgYIASAHKAESPgo8TTO%2Byu7KyKLV8BW13HFGHimeNiQ72Qw%2FFp2Swc0FiePS035F94B0GvlGldM%2F5IYpBJdZIXmjDMYo90L5GgA%3D&amp;_svg=1&amp;checksum=1c7b234b61c49c1f27f73550449d0a44953330f795426f0297404df80ae44765&amp;item_author_type=2&amp;link_reflow_popup_iteration_sharer=%7B%22follow_to_play_duration%22%3A-1%2C%22click_empty_to_play%22%3A1%2C%22dynamic_cover%22%3A1%2C%22profile_clickable%22%3A1%7D&amp;mid=7558771820891998992&amp;preview_pb=0&amp;region=VN&amp;sec_user_id=MS4wLjABAAAAaQ1zHLVWOPmkqZxFTfbUvVSrwinaIobcnVtzDBiI0CdMduC45Tt3RqI-WwzAilhn&amp;share_app_id=1180&amp;share_item_id=7558771739644202260&amp;share_link_id=13D90782-0356-400B-B910-2566366E242C&amp;share_region=VN&amp;share_scene=2&amp;sharer_language=vi&amp;social_share_type=0&amp;source=h5_t&amp;timestamp=1762435286&amp;tt_from=copy&amp;u_code=d2kabl3f77faf5&amp;ug_btm=b5836%2Cb2878&amp;user_id=6615793884000714754&amp;utm_campaign=client_share&amp;utm_medium=ios&amp;utm_source=copy</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Người nhện đối đầu người cát P1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>#reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</v>
-      </c>
-      <c r="E3" t="str">
-        <v>https://s.shopee.vn/6AczLK8L0D</v>
-      </c>
-      <c r="F3" t="str">
-        <v>POSTED</v>
-      </c>
-      <c r="G3" t="str">
-        <v>http://localhost:8080/videos/video_video_002_1762438596735.mp4</v>
-      </c>
-      <c r="H3" t="str">
-        <v>d:\project\ToolAuto\tiktok-shopee-automation\videos\public\video_video_002_1762438596735.mp4</v>
-      </c>
-      <c r="I3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>video_002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7558771739644202260?_r=1&amp;_d=secCgYIASAHKAESPgo8TTO%2Byu7KyKLV8BW13HFGHimeNiQ72Qw%2FFp2Swc0FiePS035F94B0GvlGldM%2F5IYpBJdZIXmjDMYo90L5GgA%3D&amp;_svg=1&amp;checksum=1c7b234b61c49c1f27f73550449d0a44953330f795426f0297404df80ae44765&amp;item_author_type=2&amp;link_reflow_popup_iteration_sharer=%7B%22follow_to_play_duration%22%3A-1%2C%22click_empty_to_play%22%3A1%2C%22dynamic_cover%22%3A1%2C%22profile_clickable%22%3A1%7D&amp;mid=7558771820891998992&amp;preview_pb=0&amp;region=VN&amp;sec_user_id=MS4wLjABAAAAaQ1zHLVWOPmkqZxFTfbUvVSrwinaIobcnVtzDBiI0CdMduC45Tt3RqI-WwzAilhn&amp;share_app_id=1180&amp;share_item_id=7558771739644202260&amp;share_link_id=13D90782-0356-400B-B910-2566366E242C&amp;share_region=VN&amp;share_scene=2&amp;sharer_language=vi&amp;social_share_type=0&amp;source=h5_t&amp;timestamp=1762435286&amp;tt_from=copy&amp;u_code=d2kabl3f77faf5&amp;ug_btm=b5836%2Cb2878&amp;user_id=6615793884000714754&amp;utm_campaign=client_share&amp;utm_medium=ios&amp;utm_source=copy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Người nhện đối đầu người cát P1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>#reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>POSTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/videos/video_video_002_1762438596735.mp4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>d:\project\ToolAuto\tiktok-shopee-automation\videos\public\video_video_002_1762438596735.mp4</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>37801591</v>
       </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v>2586384751743051</v>
-      </c>
-      <c r="M3" t="str">
-        <v>https://www.facebook.com/2586384751743051</v>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2586384751743051</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/2586384751743051</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@6615793884000714754/video/7511712162205699346</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Thor phim hay #1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@6615793884000714754/video/7511712162205699346</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7511712162205699346</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@121690389379452928/video/7568227552796364053</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Thor phim hay #2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@121690389379452928/video/7568227552796364053</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7568227552796364053</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@6615793884000714754/video/7512070111755242759</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Thor phim hay #3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@6615793884000714754/video/7512070111755242759</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7512070111755242759</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@121690389379452928/video/7566487626077818132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Thor phim hay #4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@121690389379452928/video/7566487626077818132</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>7566487626077818132</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@121690389379452928/video/7565798714799934740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Thor phim hay #5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@121690389379452928/video/7565798714799934740</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7565798714799934740</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569580062823992583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thor phim hay #6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569580062823992583</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7569580062823992583</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569520245048708359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Thor phim hay #7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569520245048708359</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>7569520245048708359</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569446816282955016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thor phim hay #8</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569446816282955016</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7569446816282955016</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569209416772324626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thor phim hay #9</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569209416772324626</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>7569209416772324626</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569149972315131144</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thor phim hay #10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569149972315131144</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>7569149972315131144</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569070770513644807</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thor phim hay #11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7569070770513644807</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7569070770513644807</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568840576800394504</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Thor phim hay #12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568840576800394504</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7568840576800394504</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568778472387136775</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thor phim hay #13</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568778472387136775</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7568778472387136775</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568700069009034503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Thor phim hay #14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568700069009034503</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>7568700069009034503</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568479436144676104</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Thor phim hay #15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568479436144676104</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>7568479436144676104</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568406420568247570</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Thor phim hay #16</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568406420568247570</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>7568406420568247570</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568329573285334279</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Thor phim hay #17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568329573285334279</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>7568329573285334279</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568100170903063826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Thor phim hay #18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568100170903063826</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7568100170903063826</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568037639123782920</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Thor phim hay #19</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7568037639123782920</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>7568037639123782920</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567958739022564626</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Thor phim hay #20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567958739022564626</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7567958739022564626</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567726619251510535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Thor phim hay #21</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567726619251510535</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>7567726619251510535</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567665970660003080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Thor phim hay #22</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567665970660003080</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>7567665970660003080</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567588768614452487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Thor phim hay #23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567588768614452487</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>7567588768614452487</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567356749145984274</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Thor phim hay #24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567356749145984274</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>7567356749145984274</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567295180450139410</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Thor phim hay #25</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567295180450139410</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>7567295180450139410</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567216724232178951</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Thor phim hay #26</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7567216724232178951</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>7567216724232178951</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566984338902961415</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Thor phim hay #27</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566984338902961415</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>7566984338902961415</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566923963062848776</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Thor phim hay #28</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566923963062848776</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>7566923963062848776</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566845057886670087</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Thor phim hay #29</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566845057886670087</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>7566845057886670087</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566614010666306824</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Thor phim hay #30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566614010666306824</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>7566614010666306824</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566551223382445320</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Thor phim hay #31</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566551223382445320</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>7566551223382445320</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566473844047875346</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Thor phim hay #32</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566473844047875346</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>7566473844047875346</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566241864081362194</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Thor phim hay #33</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566241864081362194</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>7566241864081362194</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566181365268483346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Thor phim hay #34</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566181365268483346</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>7566181365268483346</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566103895999515922</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Thor phim hay #35</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7566103895999515922</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>7566103895999515922</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565872116998950162</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Thor phim hay #36</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565872116998950162</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>7565872116998950162</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565809715926568210</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Thor phim hay #37</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565809715926568210</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>7565809715926568210</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565732656764292370</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Thor phim hay #38</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565732656764292370</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7565732656764292370</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565506691379367186</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Thor phim hay #39</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565506691379367186</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>7565506691379367186</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565431632799239442</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Thor phim hay #40</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thor phim hay</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>#trending #reelschallenge #phimtrunghay #reviewphimhay #reviewtruyen #StarsEverywhere #reviewphim #review</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6AczLK8L0D,https://s.shopee.vn/5q09GtvsQc,https://s.shopee.vn/LfCiqBPSY,https://s.shopee.vn/1gAaJK1Ouu,https://s.shopee.vn/10utWBx2xN,https://s.shopee.vn/6Aczff4AgV</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cartonvn/video/7565431632799239442</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>7565431632799239442</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>